--- a/data_output/prism_passive/all_passive_out_elong_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>21.564113074014358</v>
+        <v>21.564113106112956</v>
       </c>
       <c r="C2">
-        <v>7.9040980284943316</v>
+        <v>7.9040980587437559</v>
       </c>
       <c r="D2">
-        <v>22.017342245160563</v>
+        <v>22.017342285037472</v>
       </c>
       <c r="E2">
-        <v>3.3925776529337668</v>
+        <v>3.3925777113219908</v>
       </c>
       <c r="F2">
-        <v>44.390050769943912</v>
+        <v>44.390050796864102</v>
       </c>
       <c r="G2">
-        <v>12.830595171338928</v>
+        <v>12.830595232649614</v>
       </c>
       <c r="H2">
-        <v>-1.7242634854460732</v>
+        <v>-1.7242634331805959</v>
       </c>
       <c r="I2">
-        <v>9.7209217495872338</v>
+        <v>9.7209217903130991</v>
       </c>
       <c r="J2">
-        <v>12.426664711462536</v>
+        <v>12.426664747489468</v>
       </c>
       <c r="K2">
-        <v>-9.4715007312039461</v>
+        <v>-9.4715007241918272</v>
       </c>
       <c r="L2">
-        <v>8.8787411313346922</v>
+        <v>8.8787411796244839</v>
       </c>
       <c r="M2">
-        <v>4.7089913923306597</v>
+        <v>4.708991448002223</v>
       </c>
       <c r="N2">
-        <v>0.81656516522909328</v>
+        <v>0.81656523881653698</v>
       </c>
       <c r="O2">
-        <v>7.7505904187918873</v>
+        <v>7.7505904639036203</v>
       </c>
       <c r="P2">
-        <v>12.04246690955145</v>
+        <v>12.042466954416483</v>
       </c>
       <c r="Q2">
-        <v>3.2622903641872654</v>
+        <v>3.262290418666737</v>
       </c>
       <c r="R2">
-        <v>2.7919060868350982</v>
+        <v>2.79190614204947</v>
       </c>
       <c r="S2">
-        <v>14.353429777914329</v>
+        <v>14.35342980420296</v>
       </c>
       <c r="T2">
-        <v>-8.163762010761701</v>
+        <v>-8.1637619560842438</v>
       </c>
       <c r="U2">
-        <v>-5.0301647822751363</v>
+        <v>-5.0301647585436626</v>
       </c>
       <c r="V2">
-        <v>-5.5958383531743721</v>
+        <v>-5.5958383337636519</v>
       </c>
       <c r="W2">
-        <v>13.677904133864985</v>
+        <v>13.677904207905129</v>
       </c>
       <c r="X2">
-        <v>-5.2507181210234819</v>
+        <v>-5.2507180557954882</v>
       </c>
       <c r="Y2">
-        <v>-7.6718539950857689</v>
+        <v>-7.6718539683490405</v>
       </c>
       <c r="Z2">
-        <v>0.40223961968371214</v>
+        <v>0.4022396423582677</v>
       </c>
       <c r="AA2">
-        <v>8.3508285382063434</v>
+        <v>8.3508286297753784</v>
       </c>
       <c r="AB2">
-        <v>5.7044945962651354</v>
+        <v>5.7044946352603176</v>
       </c>
       <c r="AC2">
-        <v>6.7770376333209299</v>
+        <v>6.7770376654231654</v>
       </c>
       <c r="AD2">
-        <v>2.2246174038378115</v>
+        <v>2.2246174458043413</v>
       </c>
       <c r="AE2">
-        <v>-6.1853264973359501</v>
+        <v>-6.1853264735526068</v>
       </c>
       <c r="AF2">
-        <v>2.9157930229367821</v>
+        <v>2.9157930480704692</v>
       </c>
       <c r="AG2">
-        <v>3.1680909690900307</v>
+        <v>3.1680909947985754</v>
       </c>
       <c r="AH2">
-        <v>3.1695269667608841</v>
+        <v>3.1695269936678017</v>
       </c>
       <c r="AI2">
-        <v>36.148372737734007</v>
+        <v>36.148372752151488</v>
       </c>
       <c r="AJ2">
-        <v>5.0559215532263124</v>
+        <v>5.0559215914235835</v>
       </c>
       <c r="AK2">
-        <v>6.1246642117854435</v>
+        <v>6.1246642546268788</v>
       </c>
       <c r="AL2">
-        <v>-8.6789969124910442</v>
+        <v>-8.6789968801850819</v>
       </c>
       <c r="AM2">
-        <v>2.4196294948982882</v>
+        <v>2.4196295464820139</v>
       </c>
       <c r="AN2">
-        <v>1.5104605630520496</v>
+        <v>1.5104605976029291</v>
       </c>
       <c r="AO2">
-        <v>-3.8355480554209862</v>
+        <v>-3.8355479975036531</v>
       </c>
       <c r="AP2">
-        <v>3.0774778618968242</v>
+        <v>3.0774779038276279</v>
       </c>
       <c r="AQ2">
-        <v>0.66949835450370188</v>
+        <v>0.66949841826072998</v>
       </c>
       <c r="AR2">
-        <v>4.9699810236479607</v>
+        <v>4.9699810364274128</v>
       </c>
       <c r="AS2">
-        <v>-5.5708999469122205</v>
+        <v>-5.5708999047891155</v>
       </c>
       <c r="AT2">
-        <v>-4.6401676507289551</v>
+        <v>-4.6401676120338777</v>
       </c>
       <c r="AU2">
-        <v>-2.5046966932420105</v>
+        <v>-2.5046966694457637</v>
       </c>
       <c r="AV2">
-        <v>3.239885306865574</v>
+        <v>3.2398853864138175</v>
       </c>
       <c r="AW2">
-        <v>-2.9589035726013435</v>
+        <v>-2.958903518384659</v>
       </c>
       <c r="AX2">
-        <v>-5.2456890288635236</v>
+        <v>-5.2456889922681285</v>
       </c>
       <c r="AY2">
-        <v>-3.386948088682459</v>
+        <v>-3.3869480658855764</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.00180411710781</v>
+        <v>22.001804110292255</v>
       </c>
       <c r="C3">
-        <v>7.2326902721650015</v>
+        <v>7.2326902883647506</v>
       </c>
       <c r="D3">
-        <v>-6.3750217505222508</v>
+        <v>-6.3750216958381714</v>
       </c>
       <c r="E3">
-        <v>-7.4566304464109976</v>
+        <v>-7.4566304404682455</v>
       </c>
       <c r="F3">
-        <v>19.189039592245877</v>
+        <v>19.189039616807321</v>
       </c>
       <c r="G3">
-        <v>2.1664877625851773</v>
+        <v>2.1664877753949838</v>
       </c>
       <c r="H3">
-        <v>5.4438193414048612</v>
+        <v>5.4438194188790874</v>
       </c>
       <c r="I3">
-        <v>3.3784389333650893</v>
+        <v>3.3784389166979736</v>
       </c>
       <c r="J3">
-        <v>7.9151402609615502</v>
+        <v>7.9151402733044165</v>
       </c>
       <c r="K3">
-        <v>20.168034150756995</v>
+        <v>20.168034188933404</v>
       </c>
       <c r="L3">
-        <v>1.5734422368257412</v>
+        <v>1.5734422805278143</v>
       </c>
       <c r="M3">
-        <v>4.2710070504075475</v>
+        <v>4.2708615767815274</v>
       </c>
       <c r="N3">
-        <v>3.6085024812782933</v>
+        <v>3.6085025178157366</v>
       </c>
       <c r="O3">
-        <v>7.0653639282373319</v>
+        <v>7.0653639578236493</v>
       </c>
       <c r="P3">
-        <v>-31.693213700817381</v>
+        <v>-31.693213646945395</v>
       </c>
       <c r="Q3">
-        <v>2.6730267044698621</v>
+        <v>2.6730267501629612</v>
       </c>
       <c r="R3">
-        <v>12.59797204143112</v>
+        <v>12.597972101108752</v>
       </c>
       <c r="S3">
-        <v>14.769678716145734</v>
+        <v>14.769678735328597</v>
       </c>
       <c r="T3">
-        <v>13.60309841323928</v>
+        <v>13.603098445638153</v>
       </c>
       <c r="U3">
-        <v>-2.8733149286618698</v>
+        <v>-2.8733149012002741</v>
       </c>
       <c r="V3">
-        <v>-8.7784037733867422</v>
+        <v>-8.7784037484757675</v>
       </c>
       <c r="W3">
-        <v>0.18783378822058694</v>
+        <v>0.18783383460592518</v>
       </c>
       <c r="X3">
-        <v>14.838072800855457</v>
+        <v>14.838072826944625</v>
       </c>
       <c r="Y3">
-        <v>9.2367532290384702</v>
+        <v>9.2367532772628635</v>
       </c>
       <c r="Z3">
-        <v>-4.9861813697338278</v>
+        <v>-4.986181339760634</v>
       </c>
       <c r="AA3">
-        <v>4.7741974411210606</v>
+        <v>4.7741975461127595</v>
       </c>
       <c r="AB3">
-        <v>6.8442893814927288</v>
+        <v>6.8442894289706544</v>
       </c>
       <c r="AC3">
-        <v>0.19368516294738924</v>
+        <v>0.19368520839620373</v>
       </c>
       <c r="AD3">
-        <v>-1.8117652485463793</v>
+        <v>-1.8117651632786078</v>
       </c>
       <c r="AE3">
-        <v>-4.5373539779203895</v>
+        <v>-4.5373539513788614</v>
       </c>
       <c r="AF3">
-        <v>2.5484238691983023</v>
+        <v>2.5484238897981299</v>
       </c>
       <c r="AG3">
-        <v>4.3295304910487573</v>
+        <v>4.3295305423317814</v>
       </c>
       <c r="AH3">
-        <v>-1.3918203639997273</v>
+        <v>-1.3918203276269878</v>
       </c>
       <c r="AI3">
-        <v>7.4292619671772684</v>
+        <v>7.429262014043843</v>
       </c>
       <c r="AJ3">
-        <v>-4.1729707836865373</v>
+        <v>-4.172970742550973</v>
       </c>
       <c r="AK3">
-        <v>7.205384092448611</v>
+        <v>7.2053841230618048</v>
       </c>
       <c r="AL3">
-        <v>-7.0961023598111126</v>
+        <v>-7.0961023136352424</v>
       </c>
       <c r="AM3">
-        <v>2.6059944171439611</v>
+        <v>2.6059944766738283</v>
       </c>
       <c r="AN3">
-        <v>9.7847992175025809</v>
+        <v>9.7847992280804306</v>
       </c>
       <c r="AO3">
-        <v>20.951719933981536</v>
+        <v>20.951719982180919</v>
       </c>
       <c r="AP3">
-        <v>-7.6254866409244926</v>
+        <v>-7.6254865925550632</v>
       </c>
       <c r="AQ3">
-        <v>-3.8199460668453469</v>
+        <v>-3.819946019209624</v>
       </c>
       <c r="AR3">
-        <v>1.0585903885001926</v>
+        <v>1.0585904037127136</v>
       </c>
       <c r="AS3">
-        <v>8.8024209378802709</v>
+        <v>8.8024209789357144</v>
       </c>
       <c r="AT3">
-        <v>-0.71545431364000933</v>
+        <v>-0.71545427823480168</v>
       </c>
       <c r="AU3">
-        <v>-6.4548201240746721</v>
+        <v>-6.4548200981152775</v>
       </c>
       <c r="AV3">
-        <v>-3.7790882368906864</v>
+        <v>-3.7790881509525889</v>
       </c>
       <c r="AW3">
-        <v>-2.8117075364967832</v>
+        <v>-2.8117075011044221</v>
       </c>
       <c r="AX3">
-        <v>-32.329972828283701</v>
+        <v>-32.329972781321317</v>
       </c>
       <c r="AY3">
-        <v>-18.383045661086243</v>
+        <v>-18.383045629727462</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>21.564113106112956</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.9040980587437559</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>22.017342285037472</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.3925777113219908</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>44.390050796864102</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>12.830595232649614</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-1.7242634331805959</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>9.7209217903130991</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.426664747489468</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-9.4715007241918272</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.8787411796244839</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4.708991448002223</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.81656523881653698</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>7.7505904639036203</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.042466954416483</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.262290418666737</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2.79190614204947</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>14.35342980420296</v>
+        <v>14.353463134202968</v>
       </c>
       <c r="T2">
-        <v>-8.1637619560842438</v>
+        <v>-8.1637286260842359</v>
       </c>
       <c r="U2">
-        <v>-5.0301647585436626</v>
+        <v>-5.0301314285436547</v>
       </c>
       <c r="V2">
-        <v>-5.5958383337636519</v>
+        <v>-5.5958050037636724</v>
       </c>
       <c r="W2">
-        <v>13.677904207905129</v>
+        <v>13.677937537905109</v>
       </c>
       <c r="X2">
-        <v>-5.2507180557954882</v>
+        <v>-5.2507513857954962</v>
       </c>
       <c r="Y2">
-        <v>-7.6718539683490405</v>
+        <v>-7.6718872983490485</v>
       </c>
       <c r="Z2">
-        <v>0.4022396423582677</v>
+        <v>0.40220631235825977</v>
       </c>
       <c r="AA2">
-        <v>8.3508286297753784</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>5.7044946352603176</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.7770376654231654</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.2246174458043413</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-6.1853264735526068</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.9157930480704692</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.1680909947985754</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.1695269936678017</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>36.148372752151488</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>5.0559215914235835</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>6.1246642546268788</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-8.6789968801850819</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.4196295464820139</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.5104605976029291</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-3.8355479975036531</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.0774779038276279</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.66949841826072998</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>4.9699810364274128</v>
+        <v>4.9700143664274208</v>
       </c>
       <c r="AS2">
-        <v>-5.5708999047891155</v>
+        <v>-5.5708665747891359</v>
       </c>
       <c r="AT2">
         <v>-4.6401676120338777</v>
       </c>
       <c r="AU2">
-        <v>-2.5046966694457637</v>
+        <v>-2.5046633394457558</v>
       </c>
       <c r="AV2">
         <v>3.2398853864138175</v>
       </c>
       <c r="AW2">
-        <v>-2.958903518384659</v>
+        <v>-2.958936848384667</v>
       </c>
       <c r="AX2">
-        <v>-5.2456889922681285</v>
+        <v>-5.245722322268108</v>
       </c>
       <c r="AY2">
         <v>-3.3869480658855764</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>22.001804110292255</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.2326902883647506</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.3750216958381714</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-7.4566304404682455</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>19.189039616807321</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.1664877753949838</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.4438194188790874</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.3784389166979736</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.9151402733044165</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>20.168034188933404</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.5734422805278143</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.2708615767815274</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.6085025178157366</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.0653639578236493</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-31.693213646945395</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.6730267501629612</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>12.597972101108752</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>14.769678735328597</v>
       </c>
       <c r="T3">
-        <v>13.603098445638153</v>
+        <v>13.603131775638161</v>
       </c>
       <c r="U3">
-        <v>-2.8733149012002741</v>
+        <v>-2.8732815712002662</v>
       </c>
       <c r="V3">
-        <v>-8.7784037484757675</v>
+        <v>-8.778370418475788</v>
       </c>
       <c r="W3">
-        <v>0.18783383460592518</v>
+        <v>0.18786716460593311</v>
       </c>
       <c r="X3">
-        <v>14.838072826944625</v>
+        <v>14.838106156944633</v>
       </c>
       <c r="Y3">
-        <v>9.2367532772628635</v>
+        <v>9.236719947262884</v>
       </c>
       <c r="Z3">
-        <v>-4.986181339760634</v>
+        <v>-4.986214669760642</v>
       </c>
       <c r="AA3">
-        <v>4.7741975461127595</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>6.8442894289706544</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.19368520839620373</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-1.8117651632786078</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-4.5373539513788614</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.5484238897981299</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>4.3295305423317814</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-1.3918203276269878</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>7.429262014043843</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-4.172970742550973</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>7.2053841230618048</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-7.0961023136352424</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.6059944766738283</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>9.7847992280804306</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>20.951719982180919</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-7.6254865925550632</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-3.819946019209624</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>1.0585904037127136</v>
+        <v>1.0586237337126931</v>
       </c>
       <c r="AS3">
         <v>8.8024209789357144</v>
       </c>
       <c r="AT3">
-        <v>-0.71545427823480168</v>
+        <v>-0.71542094823479374</v>
       </c>
       <c r="AU3">
-        <v>-6.4548200981152775</v>
+        <v>-6.4547867681152695</v>
       </c>
       <c r="AV3">
-        <v>-3.7790881509525889</v>
+        <v>-3.7791214809525968</v>
       </c>
       <c r="AW3">
-        <v>-2.8117075011044221</v>
+        <v>-2.8116741711044142</v>
       </c>
       <c r="AX3">
-        <v>-32.329972781321317</v>
+        <v>-32.330006111321296</v>
       </c>
       <c r="AY3">
         <v>-18.383045629727462</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>21.564146404014366</v>
+        <v>7.7505571339036123</v>
       </c>
       <c r="C2">
-        <v>6.3673980284943354</v>
+        <v>2.7919394720494495</v>
       </c>
       <c r="D2">
-        <v>22.017342245160563</v>
+        <v>1.5104272676029211</v>
       </c>
       <c r="E2">
-        <v>-3.9207890170662552</v>
+        <v>0.66949841826072998</v>
       </c>
       <c r="F2">
         <v>44.39008409994392</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.00180411710781</v>
+        <v>7.0653639578236493</v>
       </c>
       <c r="C3">
-        <v>0.59272360216499465</v>
+        <v>12.59800543110876</v>
       </c>
       <c r="D3">
-        <v>-6.3749884205222713</v>
+        <v>9.7847658980804511</v>
       </c>
       <c r="E3">
-        <v>-7.4565971164109897</v>
+        <v>-3.817925753123717</v>
       </c>
       <c r="F3">
         <v>19.189006262245869</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>21.564146404014366</v>
+        <v>38.665747953482509</v>
       </c>
       <c r="C2">
-        <v>6.3673980284943354</v>
+        <v>8.5149312994450668</v>
       </c>
       <c r="D2">
-        <v>22.017342245160563</v>
+        <v>13.820022612208845</v>
       </c>
       <c r="E2">
-        <v>-3.9207890170662552</v>
+        <v>3.0776763777496114</v>
       </c>
       <c r="F2">
         <v>44.39008409994392</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.00180411710781</v>
+        <v>54.108535847815745</v>
       </c>
       <c r="C3">
-        <v>0.59272360216499465</v>
+        <v>7.0653639578236493</v>
       </c>
       <c r="D3">
-        <v>-6.3749884205222713</v>
+        <v>-10.900672193326187</v>
       </c>
       <c r="E3">
-        <v>-7.4565971164109897</v>
+        <v>9.7847658980804511</v>
       </c>
       <c r="F3">
         <v>19.189006262245869</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>22.64564713602357</v>
+      </c>
+      <c r="C2">
+        <v>6.3673980587437597</v>
+      </c>
+      <c r="D2">
+        <v>27.993970666091684</v>
+      </c>
+      <c r="E2">
+        <v>5.7721538967894332</v>
+      </c>
+      <c r="F2">
+        <v>44.39008412686411</v>
+      </c>
+      <c r="G2">
+        <v>12.830628562649594</v>
+      </c>
+      <c r="H2">
+        <v>-0.69172550255294141</v>
+      </c>
+      <c r="I2">
+        <v>13.155541288830875</v>
+      </c>
+      <c r="J2">
+        <v>13.075718441463152</v>
+      </c>
+      <c r="K2">
+        <v>-5.548289506023167</v>
+      </c>
+      <c r="L2">
+        <v>14.101911690770635</v>
+      </c>
+      <c r="M2">
+        <v>4.7089581180022435</v>
+      </c>
+      <c r="N2">
         <v>38.665747953482509</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>8.5149312994450668</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>12.042466954416483</v>
+      </c>
+      <c r="Q2">
+        <v>-28.39434291133324</v>
+      </c>
+      <c r="R2">
+        <v>2.7919394720494495</v>
+      </c>
+      <c r="S2">
+        <v>16.83150341896922</v>
+      </c>
+      <c r="T2">
+        <v>-8.1637286260842359</v>
+      </c>
+      <c r="U2">
+        <v>-3.8077043093132943</v>
+      </c>
+      <c r="V2">
+        <v>-0.44785684817762217</v>
+      </c>
+      <c r="W2">
+        <v>17.891943643529032</v>
+      </c>
+      <c r="X2">
+        <v>-2.2154948253021587</v>
+      </c>
+      <c r="Y2">
+        <v>-7.0361840874746235</v>
+      </c>
+      <c r="Z2">
+        <v>0.40220631235825977</v>
+      </c>
+      <c r="AA2">
+        <v>9.1852440248009088</v>
+      </c>
+      <c r="AB2">
+        <v>34.787827965260334</v>
+      </c>
+      <c r="AC2">
+        <v>14.350575555413769</v>
+      </c>
+      <c r="AD2">
+        <v>19.393437466571044</v>
+      </c>
+      <c r="AE2">
+        <v>-6.1853264735526068</v>
+      </c>
+      <c r="AF2">
+        <v>2.9158263780704772</v>
+      </c>
+      <c r="AG2">
+        <v>4.0248346098296963</v>
+      </c>
+      <c r="AH2">
+        <v>5.7349383855140843</v>
+      </c>
+      <c r="AI2">
+        <v>36.871766761437158</v>
+      </c>
+      <c r="AJ2">
+        <v>8.5038257754352742</v>
+      </c>
+      <c r="AK2">
+        <v>10.984210827589351</v>
+      </c>
+      <c r="AL2">
+        <v>-8.6789968801850819</v>
+      </c>
+      <c r="AM2">
         <v>13.820022612208845</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.0776763777496114</v>
       </c>
-      <c r="F2">
-        <v>44.39008409994392</v>
-      </c>
-      <c r="G2">
-        <v>12.830628501338907</v>
-      </c>
-      <c r="H2">
-        <v>-1.7242968154460527</v>
-      </c>
-      <c r="I2">
-        <v>9.7209550795872417</v>
-      </c>
-      <c r="J2">
-        <v>12.426631381462556</v>
-      </c>
-      <c r="K2">
-        <v>-9.471534061203954</v>
-      </c>
-      <c r="L2">
-        <v>8.8787744613347002</v>
-      </c>
-      <c r="M2">
-        <v>4.7089580623306801</v>
-      </c>
-      <c r="N2">
-        <v>36.956598495229088</v>
-      </c>
-      <c r="O2">
-        <v>7.7505570887918793</v>
-      </c>
-      <c r="P2">
-        <v>12.04246690955145</v>
-      </c>
-      <c r="Q2">
-        <v>-28.394342965812712</v>
-      </c>
-      <c r="R2">
-        <v>2.7919394168350777</v>
-      </c>
-      <c r="S2">
-        <v>14.353463107914337</v>
-      </c>
-      <c r="T2">
-        <v>-8.1637286807616931</v>
-      </c>
-      <c r="U2">
-        <v>-5.0301314522751284</v>
-      </c>
-      <c r="V2">
-        <v>-5.5958050231743925</v>
-      </c>
-      <c r="W2">
-        <v>13.687927967078821</v>
-      </c>
-      <c r="X2">
-        <v>-5.2507514510234898</v>
-      </c>
-      <c r="Y2">
-        <v>-7.6718873250857769</v>
-      </c>
-      <c r="Z2">
-        <v>0.4022062896837042</v>
-      </c>
-      <c r="AA2">
-        <v>8.3507952082063355</v>
-      </c>
-      <c r="AB2">
-        <v>34.787827926265152</v>
-      </c>
-      <c r="AC2">
-        <v>6.7770043033209504</v>
-      </c>
-      <c r="AD2">
-        <v>9.7712840738377906</v>
-      </c>
-      <c r="AE2">
-        <v>-6.1853264973359501</v>
-      </c>
-      <c r="AF2">
-        <v>2.91582635293679</v>
-      </c>
-      <c r="AG2">
-        <v>3.1680909690900307</v>
-      </c>
-      <c r="AH2">
-        <v>3.169560296760892</v>
-      </c>
-      <c r="AI2">
-        <v>36.148406067733987</v>
-      </c>
-      <c r="AJ2">
-        <v>5.0558882232263329</v>
-      </c>
-      <c r="AK2">
-        <v>6.124630881785464</v>
-      </c>
-      <c r="AL2">
-        <v>-8.6789969124910442</v>
-      </c>
-      <c r="AM2">
-        <v>11.722962824898303</v>
-      </c>
-      <c r="AN2">
-        <v>1.5104272330520416</v>
-      </c>
       <c r="AO2">
-        <v>-3.8355480554209862</v>
+        <v>-3.8355479975036531</v>
       </c>
       <c r="AP2">
-        <v>2.6531280874865217</v>
+        <v>2.6531281489293121</v>
       </c>
       <c r="AQ2">
-        <v>0.66949835450370188</v>
+        <v>0.66949841826072998</v>
       </c>
       <c r="AR2">
-        <v>4.9700143536479686</v>
+        <v>7.2551940875041794</v>
       </c>
       <c r="AS2">
-        <v>-5.5708666169122409</v>
+        <v>-5.5708665747891359</v>
       </c>
       <c r="AT2">
-        <v>-4.6401676507289551</v>
+        <v>-4.2501816319084753</v>
       </c>
       <c r="AU2">
-        <v>-2.5046633632420026</v>
+        <v>1.8465167640882214</v>
       </c>
       <c r="AV2">
-        <v>3.2474284299442218</v>
+        <v>7.9951110346889038</v>
       </c>
       <c r="AW2">
-        <v>-2.9589369026013514</v>
+        <v>-0.33940527506570106</v>
       </c>
       <c r="AX2">
-        <v>-5.2457223588635031</v>
+        <v>-4.7693024145583252</v>
       </c>
       <c r="AY2">
-        <v>-3.386948088682459</v>
+        <v>-3.3869480658855764</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>22.001804110292255</v>
+      </c>
+      <c r="C3">
+        <v>6.8124161951689359</v>
+      </c>
+      <c r="D3">
+        <v>-6.3749883658381918</v>
+      </c>
+      <c r="E3">
+        <v>-7.4565971104682376</v>
+      </c>
+      <c r="F3">
+        <v>22.331781661177359</v>
+      </c>
+      <c r="G3">
+        <v>4.903711292172062</v>
+      </c>
+      <c r="H3">
+        <v>5.4437860888791079</v>
+      </c>
+      <c r="I3">
+        <v>3.3784055866979656</v>
+      </c>
+      <c r="J3">
+        <v>5.6718402733044115</v>
+      </c>
+      <c r="K3">
+        <v>20.168034188933404</v>
+      </c>
+      <c r="L3">
+        <v>1.5734089505278064</v>
+      </c>
+      <c r="M3">
+        <v>7.0202344362087672</v>
+      </c>
+      <c r="N3">
         <v>54.108535847815745</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>7.0653639578236493</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-30.689200447570443</v>
+      </c>
+      <c r="Q3">
+        <v>3.4369804369887333</v>
+      </c>
+      <c r="R3">
+        <v>14.229794338576994</v>
+      </c>
+      <c r="S3">
+        <v>14.769678735328597</v>
+      </c>
+      <c r="T3">
+        <v>14.426169205541044</v>
+      </c>
+      <c r="U3">
+        <v>-2.8732815712002662</v>
+      </c>
+      <c r="V3">
+        <v>-8.778370418475788</v>
+      </c>
+      <c r="W3">
+        <v>0.36754224472625197</v>
+      </c>
+      <c r="X3">
+        <v>14.838106156944633</v>
+      </c>
+      <c r="Y3">
+        <v>9.236719947262884</v>
+      </c>
+      <c r="Z3">
+        <v>-4.9482315541418416</v>
+      </c>
+      <c r="AA3">
+        <v>4.7742308761127674</v>
+      </c>
+      <c r="AB3">
+        <v>14.350000442978057</v>
+      </c>
+      <c r="AC3">
+        <v>0.1936518783961958</v>
+      </c>
+      <c r="AD3">
+        <v>-1.8117651632786078</v>
+      </c>
+      <c r="AE3">
+        <v>-1.4126748021752178</v>
+      </c>
+      <c r="AF3">
+        <v>4.5868530227965891</v>
+      </c>
+      <c r="AG3">
+        <v>4.3295305423317814</v>
+      </c>
+      <c r="AH3">
+        <v>-1.1531344622366362</v>
+      </c>
+      <c r="AI3">
+        <v>5.8558953440438586</v>
+      </c>
+      <c r="AJ3">
+        <v>-4.1729374125509651</v>
+      </c>
+      <c r="AK3">
+        <v>7.2053507930618252</v>
+      </c>
+      <c r="AL3">
+        <v>-4.5711812921184958</v>
+      </c>
+      <c r="AM3">
         <v>-10.900672193326187</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>9.7847658980804511</v>
       </c>
-      <c r="F3">
-        <v>19.189006262245869</v>
-      </c>
-      <c r="G3">
-        <v>2.1665210925851852</v>
-      </c>
-      <c r="H3">
-        <v>5.4437860114048817</v>
-      </c>
-      <c r="I3">
-        <v>3.3784056033650813</v>
-      </c>
-      <c r="J3">
-        <v>5.6718402609615453</v>
-      </c>
-      <c r="K3">
-        <v>20.168034150756995</v>
-      </c>
-      <c r="L3">
-        <v>1.5734089068257333</v>
-      </c>
-      <c r="M3">
-        <v>4.2710070504075475</v>
-      </c>
-      <c r="N3">
-        <v>54.108535811278301</v>
-      </c>
-      <c r="O3">
-        <v>7.0653639282373319</v>
-      </c>
-      <c r="P3">
-        <v>-31.693180370817373</v>
-      </c>
-      <c r="Q3">
-        <v>2.6729933744698826</v>
-      </c>
-      <c r="R3">
-        <v>12.598005371431128</v>
-      </c>
-      <c r="S3">
-        <v>14.769678716145734</v>
-      </c>
-      <c r="T3">
-        <v>13.603131743239288</v>
-      </c>
-      <c r="U3">
-        <v>-2.8732815986618618</v>
-      </c>
-      <c r="V3">
-        <v>-8.7783704433867626</v>
-      </c>
-      <c r="W3">
-        <v>0.3675420228242956</v>
-      </c>
-      <c r="X3">
-        <v>14.838106130855465</v>
-      </c>
-      <c r="Y3">
-        <v>9.2367198990384907</v>
-      </c>
-      <c r="Z3">
-        <v>-4.9862146997338357</v>
-      </c>
-      <c r="AA3">
-        <v>4.7742307711210685</v>
-      </c>
-      <c r="AB3">
-        <v>9.4075893814927269</v>
-      </c>
-      <c r="AC3">
-        <v>0.19365183294738131</v>
-      </c>
-      <c r="AD3">
-        <v>-1.8117652485463793</v>
-      </c>
-      <c r="AE3">
-        <v>-4.53732064792041</v>
-      </c>
-      <c r="AF3">
-        <v>2.5484571991983103</v>
-      </c>
-      <c r="AG3">
-        <v>4.3295304910487573</v>
-      </c>
-      <c r="AH3">
-        <v>-1.1531345010867255</v>
-      </c>
-      <c r="AI3">
-        <v>5.855895297177284</v>
-      </c>
-      <c r="AJ3">
-        <v>-4.1729374536865294</v>
-      </c>
-      <c r="AK3">
-        <v>7.2053507624486315</v>
-      </c>
-      <c r="AL3">
-        <v>-7.0961023598111126</v>
-      </c>
-      <c r="AM3">
-        <v>-10.900672252856054</v>
-      </c>
-      <c r="AN3">
-        <v>9.7847658875026013</v>
-      </c>
       <c r="AO3">
-        <v>20.951719933981536</v>
+        <v>21.608222507122434</v>
       </c>
       <c r="AP3">
-        <v>-7.6255199709245005</v>
+        <v>-6.8594074497404165</v>
       </c>
       <c r="AQ3">
-        <v>-3.8179258038070714</v>
+        <v>-1.8033215746505107</v>
       </c>
       <c r="AR3">
-        <v>1.0586237185001721</v>
+        <v>1.0586237337126931</v>
       </c>
       <c r="AS3">
-        <v>8.8024209378802709</v>
+        <v>9.4181589770070104</v>
       </c>
       <c r="AT3">
-        <v>-0.7154209836400014</v>
+        <v>-0.71542094823479374</v>
       </c>
       <c r="AU3">
-        <v>-6.4547867940746642</v>
+        <v>-6.4547867681152695</v>
       </c>
       <c r="AV3">
-        <v>-3.7750834171781662</v>
+        <v>-3.7750833330183582</v>
       </c>
       <c r="AW3">
-        <v>-2.8116742064967752</v>
+        <v>-2.8116741711044142</v>
       </c>
       <c r="AX3">
-        <v>-32.33000615828368</v>
+        <v>-32.330006111321296</v>
       </c>
       <c r="AY3">
-        <v>-18.383045661086243</v>
+        <v>-18.27219435089097</v>
       </c>
     </row>
   </sheetData>
